--- a/transactions_details.xlsx
+++ b/transactions_details.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,13 +431,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
   </cols>
@@ -496,7 +496,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>4071572934</v>
+        <v>4072260447</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -504,21 +504,17 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:52:00</t>
+          <t>13 Aug 2024 11:53:16</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -526,23 +522,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_vz32xye22a</t>
-        </is>
-      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>4071570390</v>
+        <v>4069897375</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -550,21 +538,17 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:51:05</t>
+          <t>12 Aug 2024 16:14:56</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -572,45 +556,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_smu8xk07a9</t>
-        </is>
-      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>4071569589</v>
+        <v>4069891073</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:50:48</t>
+          <t>12 Aug 2024 16:13:40</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -618,23 +590,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_n8eepccj8z</t>
-        </is>
-      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4071559021</v>
+        <v>3682650289</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -642,21 +606,17 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:46:56</t>
+          <t>03 Apr 2024 15:49:38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,45 +624,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_xnhtcq4ld6</t>
-        </is>
-      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4071557618</v>
+        <v>3662188658</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:46:31</t>
+          <t>27 Mar 2024 10:35:32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -710,23 +658,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_kt8wbd6177</t>
-        </is>
-      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>4071520651</v>
+        <v>3662108326</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -734,21 +674,17 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:35:24</t>
+          <t>27 Mar 2024 09:56:20</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -756,45 +692,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_pblgxesgu2</t>
-        </is>
-      </c>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>4071518746</v>
+        <v>3660501880</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:34:40</t>
+          <t>26 Mar 2024 17:00:04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,45 +726,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_4qtfcl6dxp</t>
-        </is>
-      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4071506510</v>
+        <v>3660241124</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13 Aug 2024 07:30:13</t>
+          <t>26 Mar 2024 14:50:59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -848,23 +760,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_ugyduixqaw</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>4070425945</v>
+        <v>3659423290</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -872,21 +776,17 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12 Aug 2024 20:25:47</t>
+          <t>26 Mar 2024 10:03:39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -894,23 +794,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_40mon3zv1e</t>
-        </is>
-      </c>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>4053290705</v>
+        <v>3659416409</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -918,21 +810,17 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Transaction is pending customer approval</t>
-        </is>
-      </c>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>07 Aug 2024 06:57:57</t>
+          <t>26 Mar 2024 10:00:59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -940,45 +828,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>AirtelTigo</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_btfe87yw2d</t>
-        </is>
-      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>4032643013</v>
+        <v>3659404285</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31 Jul 2024 15:42:56</t>
+          <t>26 Mar 2024 09:56:36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -986,23 +862,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_l19ant8jnd</t>
-        </is>
-      </c>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>4025985216</v>
+        <v>3659404027</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -1010,21 +878,17 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29 Jul 2024 12:09:06</t>
+          <t>26 Mar 2024 09:56:29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1032,45 +896,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_ppkxlpd5pb</t>
-        </is>
-      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>4025946267</v>
+        <v>3659403800</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Abandoned</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Transaction is pending customer approval</t>
-        </is>
-      </c>
+      <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29 Jul 2024 11:53:37</t>
+          <t>26 Mar 2024 09:56:22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1078,45 +930,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>AirtelTigo</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_5r0o38144s</t>
-        </is>
-      </c>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>4009941087</v>
+        <v>3603433681</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 11:55:51</t>
+          <t>05 Mar 2024 15:13:58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1124,23 +964,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_wdljc77hkp</t>
-        </is>
-      </c>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>4009937200</v>
+        <v>3580116858</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1148,21 +980,17 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 11:54:09</t>
+          <t>26 Feb 2024 15:20:56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1170,23 +998,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_x0uevjxd41</t>
-        </is>
-      </c>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>4009934919</v>
+        <v>3568230540</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
@@ -1194,21 +1014,17 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 11:53:13</t>
+          <t>22 Feb 2024 09:58:03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1216,45 +1032,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_o0k3l23v85</t>
-        </is>
-      </c>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>4009848934</v>
+        <v>3565611427</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 11:24:40</t>
+          <t>21 Feb 2024 10:05:07</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1262,23 +1066,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_iet0dlcflu</t>
-        </is>
-      </c>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>4009802782</v>
+        <v>3565606470</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1286,21 +1082,17 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 11:06:05</t>
+          <t>21 Feb 2024 10:03:04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1308,45 +1100,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_1iwphpdi99</t>
-        </is>
-      </c>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>4009705675</v>
+        <v>3565605520</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24 Jul 2024 10:27:08</t>
+          <t>21 Feb 2024 10:02:41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1354,23 +1134,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_d8iqgdqk3v</t>
-        </is>
-      </c>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>4007372139</v>
+        <v>3565601194</v>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
@@ -1378,21 +1150,17 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>100</v>
+        <v>0.7</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 15:34:05</t>
+          <t>21 Feb 2024 10:00:46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1400,45 +1168,33 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_ykzyymjzu9</t>
-        </is>
-      </c>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n">
-        <v>100</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>4007364471</v>
+        <v>3565599424</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 15:29:31</t>
+          <t>21 Feb 2024 10:00:10</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1446,23 +1202,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_g2y0qkecx9</t>
-        </is>
-      </c>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>4007362310</v>
+        <v>3563106186</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
@@ -1470,21 +1218,17 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Unable to process request, please try again</t>
-        </is>
-      </c>
+      <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 15:28:12</t>
+          <t>20 Feb 2024 09:54:35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1492,23 +1236,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_vtr81zzrt0</t>
-        </is>
-      </c>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>4007357264</v>
+        <v>3563071871</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
@@ -1516,21 +1252,17 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 15:25:21</t>
+          <t>20 Feb 2024 09:35:32</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1538,23 +1270,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_crnxcdgno6</t>
-        </is>
-      </c>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>4007356053</v>
+        <v>3549986531</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -1562,21 +1286,17 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 15:24:36</t>
+          <t>15 Feb 2024 11:57:36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1584,23 +1304,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_fvxjhrpyyq</t>
-        </is>
-      </c>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>4007294867</v>
+        <v>3538026123</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -1608,21 +1320,17 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 14:51:06</t>
+          <t>10 Feb 2024 19:18:13</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -1630,23 +1338,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_k8m0i5729k</t>
-        </is>
-      </c>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>4007293789</v>
+        <v>3536915818</v>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
@@ -1654,21 +1354,17 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 14:50:46</t>
+          <t>10 Feb 2024 11:53:39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1676,23 +1372,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_uv4gylypro</t>
-        </is>
-      </c>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>4007286207</v>
+        <v>3536907685</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
@@ -1700,21 +1388,17 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>23 Jul 2024 14:48:53</t>
+          <t>10 Feb 2024 11:50:35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1722,23 +1406,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_gkexlz4i0u</t>
-        </is>
-      </c>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n">
-        <v>70</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>4003428737</v>
+        <v>3536903783</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
@@ -1746,21 +1422,17 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>LOW_BALANCE_OR_PAYEE_LIMIT_REACHED_OR_NOT_ALLOWED</t>
-        </is>
-      </c>
+      <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22 Jul 2024 08:55:31</t>
+          <t>10 Feb 2024 11:49:07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1768,23 +1440,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_rar8kdroq8</t>
-        </is>
-      </c>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>4003365100</v>
+        <v>3536900780</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
@@ -1792,21 +1456,17 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>LOW_BALANCE_OR_PAYEE_LIMIT_REACHED_OR_NOT_ALLOWED</t>
-        </is>
-      </c>
+      <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>22 Jul 2024 08:42:42</t>
+          <t>10 Feb 2024 11:47:57</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1814,23 +1474,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_wjplj15zu9</t>
-        </is>
-      </c>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>4003358611</v>
+        <v>3536895218</v>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
@@ -1838,21 +1490,17 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>LOW_BALANCE_OR_PAYEE_LIMIT_REACHED_OR_NOT_ALLOWED</t>
-        </is>
-      </c>
+      <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22 Jul 2024 08:39:59</t>
+          <t>10 Feb 2024 11:45:51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1860,23 +1508,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_xdwzb3j67t</t>
-        </is>
-      </c>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>4003282205</v>
+        <v>3536882378</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
@@ -1884,21 +1524,17 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>LOW_BALANCE_OR_PAYEE_LIMIT_REACHED_OR_NOT_ALLOWED</t>
-        </is>
-      </c>
+      <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>22 Jul 2024 08:17:13</t>
+          <t>10 Feb 2024 11:41:03</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1906,23 +1542,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_mw66bnaug6</t>
-        </is>
-      </c>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
       <c r="J32" s="2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>3973405523</v>
+        <v>3536861637</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
@@ -1930,21 +1558,17 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Unable to perform transaction, try again</t>
-        </is>
-      </c>
+      <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 16:33:28</t>
+          <t>10 Feb 2024 11:34:02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1952,23 +1576,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_nqzxhjxksr</t>
-        </is>
-      </c>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>3973394964</v>
+        <v>3536859921</v>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
@@ -1976,21 +1592,17 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Unable to perform transaction, try again</t>
-        </is>
-      </c>
+      <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 16:28:10</t>
+          <t>10 Feb 2024 11:33:27</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1998,23 +1610,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_si8szbutlb</t>
-        </is>
-      </c>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>3973367647</v>
+        <v>3536859241</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
@@ -2022,21 +1626,17 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
           <t>GHS</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
+      <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 16:17:00</t>
+          <t>10 Feb 2024 11:33:12</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2044,23 +1644,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_k2mzlv1kos</t>
-        </is>
-      </c>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>3973344809</v>
+        <v>3536847097</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
@@ -2075,14 +1667,10 @@
           <t>GHS</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Unable to perform transaction, try again</t>
-        </is>
-      </c>
+      <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 16:12:05</t>
+          <t>10 Feb 2024 11:28:58</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -2090,23 +1678,15 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_2zk9mid1jg</t>
-        </is>
-      </c>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
       <c r="J36" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>3973240204</v>
+        <v>3536710461</v>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
@@ -2124,7 +1704,7 @@
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 15:11:59</t>
+          <t>10 Feb 2024 10:38:30</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -2132,27 +1712,19 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_mkwz2v0l6k</t>
-        </is>
-      </c>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
       <c r="J37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>3973227157</v>
+        <v>3536706404</v>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -2163,14 +1735,10 @@
           <t>GHS</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
+      <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>12 Jul 2024 15:03:54</t>
+          <t>10 Feb 2024 10:36:55</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2178,524 +1746,10 @@
           <t>Mobile_money</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_ylpefwzgq3</t>
-        </is>
-      </c>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>3973223639</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 15:01:44</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>3973218209</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:58:27</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_7rsphcfsxf</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>3973153010</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:33:27</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>3973095749</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:05:25</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>3973088175</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:01:53</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3973086425</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:01:09</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3973084696</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 14:00:27</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3973082300</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>12 Jul 2024 13:59:29</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>3970151256</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>11 Jul 2024 15:02:52</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_lguvvqkico</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>3970143279</v>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>11 Jul 2024 14:58:26</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_rpjlcklop8</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>3970103687</v>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>Transaction timed out, please try again</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>11 Jul 2024 14:45:50</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_wx7s3ctt6h</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>3970100614</v>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>madePayment</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>11 Jul 2024 14:44:43</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Vodafone</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_by11sztobl</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>3970086479</v>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Abandoned</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>11 Jul 2024 14:38:09</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Mobile_money</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>MTN</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>AUTH_2emzvwtjb5</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
